--- a/Assets/06.Table/TestSword.xlsx
+++ b/Assets/06.Table/TestSword.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC9EC89-0B73-47FA-A68E-5690BC3EE851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C766F328-8AEA-49B9-8BAC-1B1271C3D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSword" sheetId="1" r:id="rId1"/>
@@ -271,14 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +292,14 @@
   </si>
   <si>
     <t>20층당 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B5" s="23">
         <f>Balnace!F12</f>
-        <v>2.7000000000000002E+85</v>
+        <v>2E+85</v>
       </c>
       <c r="C5" s="24" t="str">
         <f>VLOOKUP(B5,Balnace!F:G,2,FALSE)</f>
-        <v>27긍</v>
+        <v>20긍</v>
       </c>
       <c r="D5" s="25">
         <v>43</v>
@@ -1057,11 +1057,11 @@
       </c>
       <c r="B6" s="23">
         <f>Balnace!F13</f>
-        <v>8.1000000000000005E+85</v>
+        <v>8.0000000000000001E+85</v>
       </c>
       <c r="C6" s="24" t="str">
         <f>VLOOKUP(B6,Balnace!F:G,2,FALSE)</f>
-        <v>81긍</v>
+        <v>80긍</v>
       </c>
       <c r="D6" s="25">
         <v>43</v>
@@ -1077,11 +1077,11 @@
       </c>
       <c r="B7" s="23">
         <f>Balnace!F14</f>
-        <v>2.4300000000000002E+86</v>
+        <v>2.4E+86</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP(B7,Balnace!F:G,2,FALSE)</f>
-        <v>243긍</v>
+        <v>240긍</v>
       </c>
       <c r="D7" s="25">
         <v>43</v>
@@ -1097,11 +1097,11 @@
       </c>
       <c r="B8" s="23">
         <f>Balnace!F15</f>
-        <v>7.2900000000000008E+86</v>
+        <v>7.2000000000000001E+86</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP(B8,Balnace!F:G,2,FALSE)</f>
-        <v>729긍</v>
+        <v>720긍</v>
       </c>
       <c r="D8" s="25">
         <v>43</v>
@@ -1117,11 +1117,11 @@
       </c>
       <c r="B9" s="23">
         <f>Balnace!F16</f>
-        <v>2.187E+87</v>
+        <v>2.1E+87</v>
       </c>
       <c r="C9" s="24" t="str">
         <f>VLOOKUP(B9,Balnace!F:G,2,FALSE)</f>
-        <v>2187긍</v>
+        <v>2100긍</v>
       </c>
       <c r="D9" s="25">
         <v>43</v>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="B10" s="23">
         <f>Balnace!F17</f>
-        <v>6.5610000000000005E+87</v>
+        <v>6.5000000000000002E+87</v>
       </c>
       <c r="C10" s="24" t="str">
         <f>VLOOKUP(B10,Balnace!F:G,2,FALSE)</f>
-        <v>6561긍</v>
+        <v>6500긍</v>
       </c>
       <c r="D10" s="25">
         <v>43</v>
@@ -1197,11 +1197,11 @@
       </c>
       <c r="B13" s="23">
         <f>Balnace!F20</f>
-        <v>1.8E+89</v>
+        <v>9.9999999999999999E+88</v>
       </c>
       <c r="C13" s="24" t="str">
         <f>VLOOKUP(B13,Balnace!F:G,2,FALSE)</f>
-        <v>18갈</v>
+        <v>10갈</v>
       </c>
       <c r="D13" s="25">
         <v>43</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="B14" s="23">
         <f>Balnace!F21</f>
-        <v>5.3999999999999999E+89</v>
+        <v>4.9999999999999998E+89</v>
       </c>
       <c r="C14" s="24" t="str">
         <f>VLOOKUP(B14,Balnace!F:G,2,FALSE)</f>
-        <v>54갈</v>
+        <v>50갈</v>
       </c>
       <c r="D14" s="25">
         <v>43</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="B15" s="23">
         <f>Balnace!F22</f>
-        <v>1.6E+90</v>
+        <v>1.4999999999999999E+90</v>
       </c>
       <c r="C15" s="24" t="str">
         <f>VLOOKUP(B15,Balnace!F:G,2,FALSE)</f>
-        <v>160갈</v>
+        <v>150갈</v>
       </c>
       <c r="D15" s="25">
         <v>43</v>
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B16" s="23">
         <f>Balnace!F23</f>
-        <v>4.7900000000000001E+90</v>
+        <v>4.7000000000000001E+90</v>
       </c>
       <c r="C16" s="24" t="str">
         <f>VLOOKUP(B16,Balnace!F:G,2,FALSE)</f>
-        <v>479갈</v>
+        <v>470갈</v>
       </c>
       <c r="D16" s="25">
         <v>43</v>
@@ -1277,11 +1277,11 @@
       </c>
       <c r="B17" s="23">
         <f>Balnace!F24</f>
-        <v>1.435E+91</v>
+        <v>1.3999999999999999E+91</v>
       </c>
       <c r="C17" s="24" t="str">
         <f>VLOOKUP(B17,Balnace!F:G,2,FALSE)</f>
-        <v>1435갈</v>
+        <v>1400갈</v>
       </c>
       <c r="D17" s="25">
         <v>43</v>
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B18" s="23">
         <f>Balnace!F25</f>
-        <v>4.3049999999999997E+91</v>
+        <v>4.3000000000000001E+91</v>
       </c>
       <c r="C18" s="24" t="str">
         <f>VLOOKUP(B18,Balnace!F:G,2,FALSE)</f>
-        <v>4305갈</v>
+        <v>4300갈</v>
       </c>
       <c r="D18" s="25">
         <v>43</v>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="B21" s="23">
         <f>Balnace!F28</f>
-        <v>1.2000000000000001E+93</v>
+        <v>1E+93</v>
       </c>
       <c r="C21" s="24" t="str">
         <f>VLOOKUP(B21,Balnace!F:G,2,FALSE)</f>
-        <v>12라</v>
+        <v>10라</v>
       </c>
       <c r="D21" s="25">
         <v>43</v>
@@ -1377,11 +1377,11 @@
       </c>
       <c r="B22" s="23">
         <f>Balnace!F29</f>
-        <v>3.5E+93</v>
+        <v>3.0000000000000002E+93</v>
       </c>
       <c r="C22" s="24" t="str">
         <f>VLOOKUP(B22,Balnace!F:G,2,FALSE)</f>
-        <v>35라</v>
+        <v>30라</v>
       </c>
       <c r="D22" s="25">
         <v>43</v>
@@ -1397,11 +1397,11 @@
       </c>
       <c r="B23" s="23">
         <f>Balnace!F30</f>
-        <v>1.0500000000000001E+94</v>
+        <v>1E+94</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>VLOOKUP(B23,Balnace!F:G,2,FALSE)</f>
-        <v>105라</v>
+        <v>100라</v>
       </c>
       <c r="D23" s="25">
         <v>43</v>
@@ -1417,11 +1417,11 @@
       </c>
       <c r="B24" s="23">
         <f>Balnace!F31</f>
-        <v>3.1400000000000001E+94</v>
+        <v>3.1000000000000003E+94</v>
       </c>
       <c r="C24" s="24" t="str">
         <f>VLOOKUP(B24,Balnace!F:G,2,FALSE)</f>
-        <v>314라</v>
+        <v>310라</v>
       </c>
       <c r="D24" s="25">
         <v>43</v>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="B25" s="23">
         <f>Balnace!F32</f>
-        <v>9.4200000000000002E+94</v>
+        <v>9.4000000000000003E+94</v>
       </c>
       <c r="C25" s="24" t="str">
         <f>VLOOKUP(B25,Balnace!F:G,2,FALSE)</f>
-        <v>942라</v>
+        <v>940라</v>
       </c>
       <c r="D25" s="25">
         <v>43</v>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="B26" s="23">
         <f>Balnace!F33</f>
-        <v>2.8250000000000003E+95</v>
+        <v>2.8000000000000004E+95</v>
       </c>
       <c r="C26" s="24" t="str">
         <f>VLOOKUP(B26,Balnace!F:G,2,FALSE)</f>
-        <v>2825라</v>
+        <v>2800라</v>
       </c>
       <c r="D26" s="25">
         <v>43</v>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="B27" s="23">
         <f>Balnace!F34</f>
-        <v>8.4740000000000008E+95</v>
+        <v>8.4000000000000005E+95</v>
       </c>
       <c r="C27" s="24" t="str">
         <f>VLOOKUP(B27,Balnace!F:G,2,FALSE)</f>
-        <v>8474라</v>
+        <v>8400라</v>
       </c>
       <c r="D27" s="25">
         <v>43</v>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="B30" s="23">
         <f>Balnace!F37</f>
-        <v>2.3000000000000001E+97</v>
+        <v>2.0000000000000001E+97</v>
       </c>
       <c r="C30" s="24" t="str">
         <f>VLOOKUP(B30,Balnace!F:G,2,FALSE)</f>
-        <v>23가</v>
+        <v>20가</v>
       </c>
       <c r="D30" s="25">
         <v>43</v>
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B31" s="23">
         <f>Balnace!F38</f>
-        <v>6.8999999999999998E+97</v>
+        <v>6.0000000000000004E+97</v>
       </c>
       <c r="C31" s="24" t="str">
         <f>VLOOKUP(B31,Balnace!F:G,2,FALSE)</f>
-        <v>69가</v>
+        <v>60가</v>
       </c>
       <c r="D31" s="25">
         <v>43</v>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="B32" s="23">
         <f>Balnace!F39</f>
-        <v>2.0600000000000002E+98</v>
+        <v>2E+98</v>
       </c>
       <c r="C32" s="24" t="str">
         <f>VLOOKUP(B32,Balnace!F:G,2,FALSE)</f>
-        <v>206가</v>
+        <v>200가</v>
       </c>
       <c r="D32" s="25">
         <v>43</v>
@@ -1597,11 +1597,11 @@
       </c>
       <c r="B33" s="23">
         <f>Balnace!F40</f>
-        <v>6.18E+98</v>
+        <v>6.0999999999999997E+98</v>
       </c>
       <c r="C33" s="24" t="str">
         <f>VLOOKUP(B33,Balnace!F:G,2,FALSE)</f>
-        <v>618가</v>
+        <v>610가</v>
       </c>
       <c r="D33" s="25">
         <v>43</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="B34" s="23">
         <f>Balnace!F41</f>
-        <v>1.8540000000000001E+99</v>
+        <v>1.8000000000000001E+99</v>
       </c>
       <c r="C34" s="24" t="str">
         <f>VLOOKUP(B34,Balnace!F:G,2,FALSE)</f>
-        <v>1854가</v>
+        <v>1800가</v>
       </c>
       <c r="D34" s="25">
         <v>43</v>
@@ -1637,11 +1637,11 @@
       </c>
       <c r="B35" s="23">
         <f>Balnace!F42</f>
-        <v>5.5599999999999998E+99</v>
+        <v>5.5000000000000002E+99</v>
       </c>
       <c r="C35" s="24" t="str">
         <f>VLOOKUP(B35,Balnace!F:G,2,FALSE)</f>
-        <v>5560가</v>
+        <v>5500가</v>
       </c>
       <c r="D35" s="25">
         <v>43</v>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="B38" s="23">
         <f>Balnace!F45</f>
-        <v>1.6E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="C38" s="24" t="str">
         <f>VLOOKUP(B38,Balnace!F:G,2,FALSE)</f>
-        <v>16언</v>
+        <v>10언</v>
       </c>
       <c r="D38" s="25">
         <v>43</v>
@@ -1717,11 +1717,11 @@
       </c>
       <c r="B39" s="23">
         <f>Balnace!F46</f>
-        <v>4.6000000000000003E+101</v>
+        <v>3.9999999999999999E+101</v>
       </c>
       <c r="C39" s="24" t="str">
         <f>VLOOKUP(B39,Balnace!F:G,2,FALSE)</f>
-        <v>46언</v>
+        <v>40언</v>
       </c>
       <c r="D39" s="25">
         <v>43</v>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B40" s="23">
         <f>Balnace!F47</f>
-        <v>1.3600000000000001E+102</v>
+        <v>1.3E+102</v>
       </c>
       <c r="C40" s="24" t="str">
         <f>VLOOKUP(B40,Balnace!F:G,2,FALSE)</f>
-        <v>136언</v>
+        <v>130언</v>
       </c>
       <c r="D40" s="25">
         <v>43</v>
@@ -1757,11 +1757,11 @@
       </c>
       <c r="B41" s="23">
         <f>Balnace!F48</f>
-        <v>4.0599999999999999E+102</v>
+        <v>3.9999999999999999E+102</v>
       </c>
       <c r="C41" s="24" t="str">
         <f>VLOOKUP(B41,Balnace!F:G,2,FALSE)</f>
-        <v>406언</v>
+        <v>400언</v>
       </c>
       <c r="D41" s="25">
         <v>43</v>
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B42" s="23">
         <f>Balnace!F49</f>
-        <v>1.2159999999999999E+103</v>
+        <v>1.1999999999999999E+103</v>
       </c>
       <c r="C42" s="24" t="str">
         <f>VLOOKUP(B42,Balnace!F:G,2,FALSE)</f>
-        <v>1216언</v>
+        <v>1200언</v>
       </c>
       <c r="D42" s="25">
         <v>43</v>
@@ -1797,11 +1797,11 @@
       </c>
       <c r="B43" s="23">
         <f>Balnace!F50</f>
-        <v>3.6479999999999998E+103</v>
+        <v>3.6000000000000002E+103</v>
       </c>
       <c r="C43" s="24" t="str">
         <f>VLOOKUP(B43,Balnace!F:G,2,FALSE)</f>
-        <v>3648언</v>
+        <v>3600언</v>
       </c>
       <c r="D43" s="25">
         <v>43</v>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="B47" s="23">
         <f>Balnace!F54</f>
-        <v>3.0000000000000001E+105</v>
+        <v>1.9999999999999999E+105</v>
       </c>
       <c r="C47" s="24" t="str">
         <f>VLOOKUP(B47,Balnace!F:G,2,FALSE)</f>
-        <v>30승</v>
+        <v>20승</v>
       </c>
       <c r="D47" s="25">
         <v>43</v>
@@ -1897,11 +1897,11 @@
       </c>
       <c r="B48" s="23">
         <f>Balnace!F55</f>
-        <v>8.8999999999999997E+105</v>
+        <v>7.9999999999999995E+105</v>
       </c>
       <c r="C48" s="24" t="str">
         <f>VLOOKUP(B48,Balnace!F:G,2,FALSE)</f>
-        <v>89승</v>
+        <v>80승</v>
       </c>
       <c r="D48" s="25">
         <v>43</v>
@@ -1917,11 +1917,11 @@
       </c>
       <c r="B49" s="23">
         <f>Balnace!F56</f>
-        <v>2.6599999999999999E+106</v>
+        <v>2.6000000000000002E+106</v>
       </c>
       <c r="C49" s="24" t="str">
         <f>VLOOKUP(B49,Balnace!F:G,2,FALSE)</f>
-        <v>266승</v>
+        <v>260승</v>
       </c>
       <c r="D49" s="25">
         <v>43</v>
@@ -1937,11 +1937,11 @@
       </c>
       <c r="B50" s="23">
         <f>Balnace!F57</f>
-        <v>7.9799999999999996E+106</v>
+        <v>7.9E+106</v>
       </c>
       <c r="C50" s="24" t="str">
         <f>VLOOKUP(B50,Balnace!F:G,2,FALSE)</f>
-        <v>798승</v>
+        <v>790승</v>
       </c>
       <c r="D50" s="25">
         <v>43</v>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="B51" s="23">
         <f>Balnace!F58</f>
-        <v>2.3939999999999999E+107</v>
+        <v>2.3E+107</v>
       </c>
       <c r="C51" s="24" t="str">
         <f>VLOOKUP(B51,Balnace!F:G,2,FALSE)</f>
-        <v>2394승</v>
+        <v>2300승</v>
       </c>
       <c r="D51" s="25">
         <v>43</v>
@@ -1977,11 +1977,11 @@
       </c>
       <c r="B52" s="23">
         <f>Balnace!F59</f>
-        <v>7.1810000000000003E+107</v>
+        <v>7.0999999999999995E+107</v>
       </c>
       <c r="C52" s="24" t="str">
         <f>VLOOKUP(B52,Balnace!F:G,2,FALSE)</f>
-        <v>7181승</v>
+        <v>7100승</v>
       </c>
       <c r="D52" s="25">
         <v>43</v>
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B55" s="23">
         <f>Balnace!F62</f>
-        <v>2E+109</v>
+        <v>9.9999999999999998E+108</v>
       </c>
       <c r="C55" s="24" t="str">
         <f>VLOOKUP(B55,Balnace!F:G,2,FALSE)</f>
-        <v>20마</v>
+        <v>10마</v>
       </c>
       <c r="D55" s="25">
         <v>43</v>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="B56" s="23">
         <f>Balnace!F63</f>
-        <v>5.9000000000000005E+109</v>
+        <v>5.0000000000000001E+109</v>
       </c>
       <c r="C56" s="24" t="str">
         <f>VLOOKUP(B56,Balnace!F:G,2,FALSE)</f>
-        <v>59마</v>
+        <v>50마</v>
       </c>
       <c r="D56" s="25">
         <v>43</v>
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B57" s="23">
         <f>Balnace!F64</f>
-        <v>1.75E+110</v>
+        <v>1.7000000000000001E+110</v>
       </c>
       <c r="C57" s="24" t="str">
         <f>VLOOKUP(B57,Balnace!F:G,2,FALSE)</f>
-        <v>175마</v>
+        <v>170마</v>
       </c>
       <c r="D57" s="25">
         <v>43</v>
@@ -2097,11 +2097,11 @@
       </c>
       <c r="B58" s="23">
         <f>Balnace!F65</f>
-        <v>5.2399999999999999E+110</v>
+        <v>5.2E+110</v>
       </c>
       <c r="C58" s="24" t="str">
         <f>VLOOKUP(B58,Balnace!F:G,2,FALSE)</f>
-        <v>524마</v>
+        <v>520마</v>
       </c>
       <c r="D58" s="25">
         <v>43</v>
@@ -2117,11 +2117,11 @@
       </c>
       <c r="B59" s="23">
         <f>Balnace!F66</f>
-        <v>1.571E+111</v>
+        <v>1.5E+111</v>
       </c>
       <c r="C59" s="24" t="str">
         <f>VLOOKUP(B59,Balnace!F:G,2,FALSE)</f>
-        <v>1571마</v>
+        <v>1500마</v>
       </c>
       <c r="D59" s="25">
         <v>43</v>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="B60" s="23">
         <f>Balnace!F67</f>
-        <v>4.7120000000000003E+111</v>
+        <v>4.7000000000000001E+111</v>
       </c>
       <c r="C60" s="24" t="str">
         <f>VLOOKUP(B60,Balnace!F:G,2,FALSE)</f>
-        <v>4712마</v>
+        <v>4700마</v>
       </c>
       <c r="D60" s="25">
         <v>43</v>
@@ -2197,11 +2197,11 @@
       </c>
       <c r="B63" s="23">
         <f>Balnace!F70</f>
-        <v>1.3E+113</v>
+        <v>1E+113</v>
       </c>
       <c r="C63" s="24" t="str">
         <f>VLOOKUP(B63,Balnace!F:G,2,FALSE)</f>
-        <v>13살</v>
+        <v>10살</v>
       </c>
       <c r="D63" s="25">
         <v>43</v>
@@ -2217,11 +2217,11 @@
       </c>
       <c r="B64" s="23">
         <f>Balnace!F71</f>
-        <v>3.8999999999999995E+113</v>
+        <v>2.9999999999999997E+113</v>
       </c>
       <c r="C64" s="24" t="str">
         <f>VLOOKUP(B64,Balnace!F:G,2,FALSE)</f>
-        <v>39살</v>
+        <v>30살</v>
       </c>
       <c r="D64" s="25">
         <v>43</v>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="B65" s="23">
         <f>Balnace!F72</f>
-        <v>1.1499999999999999E+114</v>
+        <v>1.0999999999999999E+114</v>
       </c>
       <c r="C65" s="24" t="str">
         <f>VLOOKUP(B65,Balnace!F:G,2,FALSE)</f>
-        <v>115살</v>
+        <v>110살</v>
       </c>
       <c r="D65" s="25">
         <v>43</v>
@@ -2257,11 +2257,11 @@
       </c>
       <c r="B66" s="23">
         <f>Balnace!F73</f>
-        <v>3.4399999999999997E+114</v>
+        <v>3.3999999999999995E+114</v>
       </c>
       <c r="C66" s="24" t="str">
         <f>VLOOKUP(B66,Balnace!F:G,2,FALSE)</f>
-        <v>344살</v>
+        <v>340살</v>
       </c>
       <c r="D66" s="25">
         <v>43</v>
@@ -2277,11 +2277,11 @@
       </c>
       <c r="B67" s="23">
         <f>Balnace!F74</f>
-        <v>1.031E+115</v>
+        <v>1E+115</v>
       </c>
       <c r="C67" s="24" t="str">
         <f>VLOOKUP(B67,Balnace!F:G,2,FALSE)</f>
-        <v>1031살</v>
+        <v>1000살</v>
       </c>
       <c r="D67" s="25">
         <v>43</v>
@@ -2289,6 +2289,206 @@
       <c r="E67" s="24">
         <f>VLOOKUP(B67,Balnace!F:K,6,FALSE)</f>
         <v>1.4060000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="22">
+        <v>66</v>
+      </c>
+      <c r="B68" s="23">
+        <f>Balnace!F75</f>
+        <v>2.9999999999999996E+115</v>
+      </c>
+      <c r="C68" s="24" t="str">
+        <f>VLOOKUP(B68,Balnace!F:G,2,FALSE)</f>
+        <v>3000살</v>
+      </c>
+      <c r="D68" s="25">
+        <v>43</v>
+      </c>
+      <c r="E68" s="24">
+        <f>VLOOKUP(B68,Balnace!F:K,6,FALSE)</f>
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="22">
+        <v>67</v>
+      </c>
+      <c r="B69" s="23">
+        <f>Balnace!F76</f>
+        <v>9.2000000000000001E+115</v>
+      </c>
+      <c r="C69" s="24" t="str">
+        <f>VLOOKUP(B69,Balnace!F:G,2,FALSE)</f>
+        <v>9200살</v>
+      </c>
+      <c r="D69" s="25">
+        <v>43</v>
+      </c>
+      <c r="E69" s="24">
+        <f>VLOOKUP(B69,Balnace!F:K,6,FALSE)</f>
+        <v>1.4080000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="22">
+        <v>68</v>
+      </c>
+      <c r="B70" s="23">
+        <f>Balnace!F77</f>
+        <v>2.9999999999999999E+116</v>
+      </c>
+      <c r="C70" s="24" t="str">
+        <f>VLOOKUP(B70,Balnace!F:G,2,FALSE)</f>
+        <v>3섬</v>
+      </c>
+      <c r="D70" s="25">
+        <v>43</v>
+      </c>
+      <c r="E70" s="24">
+        <f>VLOOKUP(B70,Balnace!F:K,6,FALSE)</f>
+        <v>1.409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="22">
+        <v>69</v>
+      </c>
+      <c r="B71" s="23">
+        <f>Balnace!F78</f>
+        <v>9.0000000000000003E+116</v>
+      </c>
+      <c r="C71" s="24" t="str">
+        <f>VLOOKUP(B71,Balnace!F:G,2,FALSE)</f>
+        <v>9섬</v>
+      </c>
+      <c r="D71" s="25">
+        <v>43</v>
+      </c>
+      <c r="E71" s="24">
+        <f>VLOOKUP(B71,Balnace!F:K,6,FALSE)</f>
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="22">
+        <v>70</v>
+      </c>
+      <c r="B72" s="23">
+        <f>Balnace!F79</f>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="C72" s="24" t="str">
+        <f>VLOOKUP(B72,Balnace!F:G,2,FALSE)</f>
+        <v>20섬</v>
+      </c>
+      <c r="D72" s="25">
+        <v>43</v>
+      </c>
+      <c r="E72" s="24">
+        <f>VLOOKUP(B72,Balnace!F:K,6,FALSE)</f>
+        <v>1.4259999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="22">
+        <v>71</v>
+      </c>
+      <c r="B73" s="23">
+        <f>Balnace!F80</f>
+        <v>6.9999999999999997E+117</v>
+      </c>
+      <c r="C73" s="24" t="str">
+        <f>VLOOKUP(B73,Balnace!F:G,2,FALSE)</f>
+        <v>70섬</v>
+      </c>
+      <c r="D73" s="25">
+        <v>43</v>
+      </c>
+      <c r="E73" s="24">
+        <f>VLOOKUP(B73,Balnace!F:K,6,FALSE)</f>
+        <v>1.427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="22">
+        <v>72</v>
+      </c>
+      <c r="B74" s="23">
+        <f>Balnace!F81</f>
+        <v>2.1999999999999999E+118</v>
+      </c>
+      <c r="C74" s="24" t="str">
+        <f>VLOOKUP(B74,Balnace!F:G,2,FALSE)</f>
+        <v>220섬</v>
+      </c>
+      <c r="D74" s="25">
+        <v>43</v>
+      </c>
+      <c r="E74" s="24">
+        <f>VLOOKUP(B74,Balnace!F:K,6,FALSE)</f>
+        <v>1.4279999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="22">
+        <v>73</v>
+      </c>
+      <c r="B75" s="23">
+        <f>Balnace!F82</f>
+        <v>6.7000000000000003E+118</v>
+      </c>
+      <c r="C75" s="24" t="str">
+        <f>VLOOKUP(B75,Balnace!F:G,2,FALSE)</f>
+        <v>670섬</v>
+      </c>
+      <c r="D75" s="25">
+        <v>43</v>
+      </c>
+      <c r="E75" s="24">
+        <f>VLOOKUP(B75,Balnace!F:K,6,FALSE)</f>
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="22">
+        <v>74</v>
+      </c>
+      <c r="B76" s="23">
+        <f>Balnace!F83</f>
+        <v>1.9999999999999999E+119</v>
+      </c>
+      <c r="C76" s="24" t="str">
+        <f>VLOOKUP(B76,Balnace!F:G,2,FALSE)</f>
+        <v>2000섬</v>
+      </c>
+      <c r="D76" s="25">
+        <v>43</v>
+      </c>
+      <c r="E76" s="24">
+        <f>VLOOKUP(B76,Balnace!F:K,6,FALSE)</f>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="22">
+        <v>75</v>
+      </c>
+      <c r="B77" s="23">
+        <f>Balnace!F84</f>
+        <v>6E+119</v>
+      </c>
+      <c r="C77" s="24" t="str">
+        <f>VLOOKUP(B77,Balnace!F:G,2,FALSE)</f>
+        <v>6000섬</v>
+      </c>
+      <c r="D77" s="25">
+        <v>43</v>
+      </c>
+      <c r="E77" s="24">
+        <f>VLOOKUP(B77,Balnace!F:K,6,FALSE)</f>
+        <v>1.4360000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2302,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C958EC-A3B0-4647-8AFE-077786E933F9}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2449,11 +2649,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="17">
-        <f>ROUNDUP(H9,0)*J9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))*J9</f>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="G9" s="17" t="str">
-        <f>ROUNDUP(H9,0)&amp;I9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))&amp;I9</f>
         <v>1긍</v>
       </c>
       <c r="H9" s="17">
@@ -2497,11 +2697,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" ref="F10:F73" si="3">ROUNDUP(H10,0)*J10</f>
+        <f t="shared" ref="F10:F73" si="3">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))*J10</f>
         <v>3.0000000000000004E+84</v>
       </c>
       <c r="G10" s="17" t="str">
-        <f t="shared" ref="G10:G73" si="4">ROUNDUP(H10,0)&amp;I10</f>
+        <f t="shared" ref="G10:G73" si="4">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))&amp;I10</f>
         <v>3긍</v>
       </c>
       <c r="H10" s="17">
@@ -2590,11 +2790,11 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" si="3"/>
-        <v>2.7000000000000002E+85</v>
+        <v>2E+85</v>
       </c>
       <c r="G12" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>27긍</v>
+        <v>20긍</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
@@ -2640,11 +2840,11 @@
       </c>
       <c r="F13" s="17">
         <f t="shared" si="3"/>
-        <v>8.1000000000000005E+85</v>
+        <v>8.0000000000000001E+85</v>
       </c>
       <c r="G13" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>81긍</v>
+        <v>80긍</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
@@ -2679,7 +2879,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="19">
         <v>1E-3</v>
@@ -2690,11 +2890,11 @@
       </c>
       <c r="F14" s="17">
         <f t="shared" si="3"/>
-        <v>2.4300000000000002E+86</v>
+        <v>2.4E+86</v>
       </c>
       <c r="G14" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>243긍</v>
+        <v>240긍</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="6"/>
@@ -2729,7 +2929,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="19">
         <v>5.0000000000000001E-3</v>
@@ -2740,11 +2940,11 @@
       </c>
       <c r="F15" s="17">
         <f t="shared" si="3"/>
-        <v>7.2900000000000008E+86</v>
+        <v>7.2000000000000001E+86</v>
       </c>
       <c r="G15" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>729긍</v>
+        <v>720긍</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
@@ -2779,7 +2979,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="19">
         <v>0.01</v>
@@ -2790,11 +2990,11 @@
       </c>
       <c r="F16" s="17">
         <f t="shared" si="3"/>
-        <v>2.187E+87</v>
+        <v>2.1E+87</v>
       </c>
       <c r="G16" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2187긍</v>
+        <v>2100긍</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
@@ -2829,7 +3029,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="19">
         <v>0.05</v>
@@ -2840,11 +3040,11 @@
       </c>
       <c r="F17" s="17">
         <f t="shared" si="3"/>
-        <v>6.5610000000000005E+87</v>
+        <v>6.5000000000000002E+87</v>
       </c>
       <c r="G17" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>6561긍</v>
+        <v>6500긍</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
@@ -2972,11 +3172,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" si="3"/>
-        <v>1.8E+89</v>
+        <v>9.9999999999999999E+88</v>
       </c>
       <c r="G20" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>18갈</v>
+        <v>10갈</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
@@ -3016,11 +3216,11 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" si="3"/>
-        <v>5.3999999999999999E+89</v>
+        <v>4.9999999999999998E+89</v>
       </c>
       <c r="G21" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>54갈</v>
+        <v>50갈</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
@@ -3060,11 +3260,11 @@
       </c>
       <c r="F22" s="17">
         <f t="shared" si="3"/>
-        <v>1.6E+90</v>
+        <v>1.4999999999999999E+90</v>
       </c>
       <c r="G22" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>160갈</v>
+        <v>150갈</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
@@ -3103,11 +3303,11 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" si="3"/>
-        <v>4.7900000000000001E+90</v>
+        <v>4.7000000000000001E+90</v>
       </c>
       <c r="G23" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>479갈</v>
+        <v>470갈</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
@@ -3146,11 +3346,11 @@
       </c>
       <c r="F24" s="17">
         <f t="shared" si="3"/>
-        <v>1.435E+91</v>
+        <v>1.3999999999999999E+91</v>
       </c>
       <c r="G24" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1435갈</v>
+        <v>1400갈</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
@@ -3189,11 +3389,11 @@
       </c>
       <c r="F25" s="17">
         <f t="shared" si="3"/>
-        <v>4.3049999999999997E+91</v>
+        <v>4.3000000000000001E+91</v>
       </c>
       <c r="G25" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>4305갈</v>
+        <v>4300갈</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
@@ -3318,11 +3518,11 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" si="3"/>
-        <v>1.2000000000000001E+93</v>
+        <v>1E+93</v>
       </c>
       <c r="G28" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>12라</v>
+        <v>10라</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
@@ -3361,11 +3561,11 @@
       </c>
       <c r="F29" s="17">
         <f t="shared" si="3"/>
-        <v>3.5E+93</v>
+        <v>3.0000000000000002E+93</v>
       </c>
       <c r="G29" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>35라</v>
+        <v>30라</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="6"/>
@@ -3404,11 +3604,11 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" si="3"/>
-        <v>1.0500000000000001E+94</v>
+        <v>1E+94</v>
       </c>
       <c r="G30" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>105라</v>
+        <v>100라</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="6"/>
@@ -3447,11 +3647,11 @@
       </c>
       <c r="F31" s="17">
         <f t="shared" si="3"/>
-        <v>3.1400000000000001E+94</v>
+        <v>3.1000000000000003E+94</v>
       </c>
       <c r="G31" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>314라</v>
+        <v>310라</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="6"/>
@@ -3490,11 +3690,11 @@
       </c>
       <c r="F32" s="17">
         <f t="shared" si="3"/>
-        <v>9.4200000000000002E+94</v>
+        <v>9.4000000000000003E+94</v>
       </c>
       <c r="G32" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>942라</v>
+        <v>940라</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="6"/>
@@ -3534,11 +3734,11 @@
       </c>
       <c r="F33" s="17">
         <f t="shared" si="3"/>
-        <v>2.8250000000000003E+95</v>
+        <v>2.8000000000000004E+95</v>
       </c>
       <c r="G33" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2825라</v>
+        <v>2800라</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="6"/>
@@ -3587,11 +3787,11 @@
       </c>
       <c r="F34" s="17">
         <f t="shared" si="3"/>
-        <v>8.4740000000000008E+95</v>
+        <v>8.4000000000000005E+95</v>
       </c>
       <c r="G34" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>8474라</v>
+        <v>8400라</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="6"/>
@@ -3746,11 +3946,11 @@
       </c>
       <c r="F37" s="17">
         <f t="shared" si="3"/>
-        <v>2.3000000000000001E+97</v>
+        <v>2.0000000000000001E+97</v>
       </c>
       <c r="G37" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>23가</v>
+        <v>20가</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="6"/>
@@ -3770,7 +3970,7 @@
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N37" s="16">
         <v>120</v>
@@ -3799,11 +3999,11 @@
       </c>
       <c r="F38" s="17">
         <f t="shared" si="3"/>
-        <v>6.8999999999999998E+97</v>
+        <v>6.0000000000000004E+97</v>
       </c>
       <c r="G38" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>69가</v>
+        <v>60가</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="6"/>
@@ -3823,7 +4023,7 @@
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N38" s="16">
         <v>124</v>
@@ -3852,11 +4052,11 @@
       </c>
       <c r="F39" s="17">
         <f t="shared" si="3"/>
-        <v>2.0600000000000002E+98</v>
+        <v>2E+98</v>
       </c>
       <c r="G39" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>206가</v>
+        <v>200가</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="6"/>
@@ -3875,7 +4075,7 @@
         <v>1.206</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N39" s="16">
         <v>128</v>
@@ -3895,11 +4095,11 @@
       </c>
       <c r="F40" s="17">
         <f t="shared" si="3"/>
-        <v>6.18E+98</v>
+        <v>6.0999999999999997E+98</v>
       </c>
       <c r="G40" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>618가</v>
+        <v>610가</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="6"/>
@@ -3918,7 +4118,7 @@
         <v>1.2070000000000001</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N40" s="16">
         <v>132</v>
@@ -3938,11 +4138,11 @@
       </c>
       <c r="F41" s="17">
         <f t="shared" si="3"/>
-        <v>1.8540000000000001E+99</v>
+        <v>1.8000000000000001E+99</v>
       </c>
       <c r="G41" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1854가</v>
+        <v>1800가</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="6"/>
@@ -3967,11 +4167,11 @@
       </c>
       <c r="F42" s="17">
         <f t="shared" si="3"/>
-        <v>5.5599999999999998E+99</v>
+        <v>5.5000000000000002E+99</v>
       </c>
       <c r="G42" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>5560가</v>
+        <v>5500가</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="6"/>
@@ -4054,11 +4254,11 @@
       </c>
       <c r="F45" s="17">
         <f t="shared" si="3"/>
-        <v>1.6E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="G45" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>16언</v>
+        <v>10언</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="6"/>
@@ -4083,11 +4283,11 @@
       </c>
       <c r="F46" s="17">
         <f t="shared" si="3"/>
-        <v>4.6000000000000003E+101</v>
+        <v>3.9999999999999999E+101</v>
       </c>
       <c r="G46" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>46언</v>
+        <v>40언</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="6"/>
@@ -4112,11 +4312,11 @@
       </c>
       <c r="F47" s="17">
         <f t="shared" si="3"/>
-        <v>1.3600000000000001E+102</v>
+        <v>1.3E+102</v>
       </c>
       <c r="G47" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>136언</v>
+        <v>130언</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="6"/>
@@ -4141,11 +4341,11 @@
       </c>
       <c r="F48" s="17">
         <f t="shared" si="3"/>
-        <v>4.0599999999999999E+102</v>
+        <v>3.9999999999999999E+102</v>
       </c>
       <c r="G48" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>406언</v>
+        <v>400언</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="6"/>
@@ -4170,11 +4370,11 @@
       </c>
       <c r="F49" s="17">
         <f t="shared" si="3"/>
-        <v>1.2159999999999999E+103</v>
+        <v>1.1999999999999999E+103</v>
       </c>
       <c r="G49" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1216언</v>
+        <v>1200언</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="6"/>
@@ -4199,11 +4399,11 @@
       </c>
       <c r="F50" s="17">
         <f t="shared" si="3"/>
-        <v>3.6479999999999998E+103</v>
+        <v>3.6000000000000002E+103</v>
       </c>
       <c r="G50" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3648언</v>
+        <v>3600언</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="6"/>
@@ -4315,11 +4515,11 @@
       </c>
       <c r="F54" s="17">
         <f t="shared" si="3"/>
-        <v>3.0000000000000001E+105</v>
+        <v>1.9999999999999999E+105</v>
       </c>
       <c r="G54" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>30승</v>
+        <v>20승</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="6"/>
@@ -4344,11 +4544,11 @@
       </c>
       <c r="F55" s="17">
         <f t="shared" si="3"/>
-        <v>8.8999999999999997E+105</v>
+        <v>7.9999999999999995E+105</v>
       </c>
       <c r="G55" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>89승</v>
+        <v>80승</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="6"/>
@@ -4373,11 +4573,11 @@
       </c>
       <c r="F56" s="17">
         <f t="shared" si="3"/>
-        <v>2.6599999999999999E+106</v>
+        <v>2.6000000000000002E+106</v>
       </c>
       <c r="G56" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>266승</v>
+        <v>260승</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="6"/>
@@ -4402,11 +4602,11 @@
       </c>
       <c r="F57" s="17">
         <f t="shared" si="3"/>
-        <v>7.9799999999999996E+106</v>
+        <v>7.9E+106</v>
       </c>
       <c r="G57" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>798승</v>
+        <v>790승</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="6"/>
@@ -4431,11 +4631,11 @@
       </c>
       <c r="F58" s="17">
         <f t="shared" si="3"/>
-        <v>2.3939999999999999E+107</v>
+        <v>2.3E+107</v>
       </c>
       <c r="G58" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2394승</v>
+        <v>2300승</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="6"/>
@@ -4460,11 +4660,11 @@
       </c>
       <c r="F59" s="17">
         <f t="shared" si="3"/>
-        <v>7.1810000000000003E+107</v>
+        <v>7.0999999999999995E+107</v>
       </c>
       <c r="G59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>7181승</v>
+        <v>7100승</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="6"/>
@@ -4547,11 +4747,11 @@
       </c>
       <c r="F62" s="17">
         <f t="shared" si="3"/>
-        <v>2E+109</v>
+        <v>9.9999999999999998E+108</v>
       </c>
       <c r="G62" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>20마</v>
+        <v>10마</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="6"/>
@@ -4576,11 +4776,11 @@
       </c>
       <c r="F63" s="17">
         <f t="shared" si="3"/>
-        <v>5.9000000000000005E+109</v>
+        <v>5.0000000000000001E+109</v>
       </c>
       <c r="G63" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>59마</v>
+        <v>50마</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="6"/>
@@ -4605,11 +4805,11 @@
       </c>
       <c r="F64" s="17">
         <f t="shared" si="3"/>
-        <v>1.75E+110</v>
+        <v>1.7000000000000001E+110</v>
       </c>
       <c r="G64" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>175마</v>
+        <v>170마</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="6"/>
@@ -4634,11 +4834,11 @@
       </c>
       <c r="F65" s="17">
         <f t="shared" si="3"/>
-        <v>5.2399999999999999E+110</v>
+        <v>5.2E+110</v>
       </c>
       <c r="G65" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>524마</v>
+        <v>520마</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="6"/>
@@ -4663,11 +4863,11 @@
       </c>
       <c r="F66" s="17">
         <f t="shared" si="3"/>
-        <v>1.571E+111</v>
+        <v>1.5E+111</v>
       </c>
       <c r="G66" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1571마</v>
+        <v>1500마</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="6"/>
@@ -4692,11 +4892,11 @@
       </c>
       <c r="F67" s="17">
         <f t="shared" si="3"/>
-        <v>4.7120000000000003E+111</v>
+        <v>4.7000000000000001E+111</v>
       </c>
       <c r="G67" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>4712마</v>
+        <v>4700마</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="6"/>
@@ -4779,11 +4979,11 @@
       </c>
       <c r="F70" s="17">
         <f t="shared" si="3"/>
-        <v>1.3E+113</v>
+        <v>1E+113</v>
       </c>
       <c r="G70" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>13살</v>
+        <v>10살</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="6"/>
@@ -4808,11 +5008,11 @@
       </c>
       <c r="F71" s="17">
         <f t="shared" si="3"/>
-        <v>3.8999999999999995E+113</v>
+        <v>2.9999999999999997E+113</v>
       </c>
       <c r="G71" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>39살</v>
+        <v>30살</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="6"/>
@@ -4837,11 +5037,11 @@
       </c>
       <c r="F72" s="17">
         <f t="shared" si="3"/>
-        <v>1.1499999999999999E+114</v>
+        <v>1.0999999999999999E+114</v>
       </c>
       <c r="G72" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>115살</v>
+        <v>110살</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" si="6"/>
@@ -4866,11 +5066,11 @@
       </c>
       <c r="F73" s="17">
         <f t="shared" si="3"/>
-        <v>3.4399999999999997E+114</v>
+        <v>3.3999999999999995E+114</v>
       </c>
       <c r="G73" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>344살</v>
+        <v>340살</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="6"/>
@@ -4894,12 +5094,12 @@
         <v>66</v>
       </c>
       <c r="F74" s="17">
-        <f t="shared" ref="F74:F117" si="10">ROUNDUP(H74,0)*J74</f>
-        <v>1.031E+115</v>
+        <f t="shared" ref="F74:F117" si="10">IF(H74&lt;10,ROUNDUP(H74,0),IF(H74&lt;100,ROUNDDOWN(H74,-1),IF(H74&lt;1000,ROUNDDOWN(H74,-1),IF(H74&lt;10000,ROUNDDOWN(H74,-2),0))))*J74</f>
+        <v>1E+115</v>
       </c>
       <c r="G74" s="17" t="str">
-        <f t="shared" ref="G74:G117" si="11">ROUNDUP(H74,0)&amp;I74</f>
-        <v>1031살</v>
+        <f t="shared" ref="G74:G117" si="11">IF(H74&lt;10,ROUNDUP(H74,0),IF(H74&lt;100,ROUNDDOWN(H74,-1),IF(H74&lt;1000,ROUNDDOWN(H74,-1),IF(H74&lt;10000,ROUNDDOWN(H74,-2),0))))&amp;I74</f>
+        <v>1000살</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="6"/>
@@ -4924,11 +5124,11 @@
       </c>
       <c r="F75" s="17">
         <f t="shared" si="10"/>
-        <v>3.0919999999999998E+115</v>
+        <v>2.9999999999999996E+115</v>
       </c>
       <c r="G75" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>3092살</v>
+        <v>3000살</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="6"/>
@@ -4953,11 +5153,11 @@
       </c>
       <c r="F76" s="17">
         <f t="shared" si="10"/>
-        <v>9.2739999999999998E+115</v>
+        <v>9.2000000000000001E+115</v>
       </c>
       <c r="G76" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>9274살</v>
+        <v>9200살</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="6"/>
@@ -5040,11 +5240,11 @@
       </c>
       <c r="F79" s="17">
         <f t="shared" si="10"/>
-        <v>2.5999999999999999E+117</v>
+        <v>2.0000000000000001E+117</v>
       </c>
       <c r="G79" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>26섬</v>
+        <v>20섬</v>
       </c>
       <c r="H79" s="17">
         <f t="shared" si="6"/>
@@ -5069,11 +5269,11 @@
       </c>
       <c r="F80" s="17">
         <f t="shared" si="10"/>
-        <v>7.6000000000000003E+117</v>
+        <v>6.9999999999999997E+117</v>
       </c>
       <c r="G80" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>76섬</v>
+        <v>70섬</v>
       </c>
       <c r="H80" s="17">
         <f t="shared" si="6"/>
@@ -5098,11 +5298,11 @@
       </c>
       <c r="F81" s="17">
         <f t="shared" si="10"/>
-        <v>2.26E+118</v>
+        <v>2.1999999999999999E+118</v>
       </c>
       <c r="G81" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>226섬</v>
+        <v>220섬</v>
       </c>
       <c r="H81" s="17">
         <f t="shared" si="6"/>
@@ -5127,11 +5327,11 @@
       </c>
       <c r="F82" s="17">
         <f t="shared" si="10"/>
-        <v>6.7700000000000005E+118</v>
+        <v>6.7000000000000003E+118</v>
       </c>
       <c r="G82" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>677섬</v>
+        <v>670섬</v>
       </c>
       <c r="H82" s="17">
         <f t="shared" si="6"/>
@@ -5156,11 +5356,11 @@
       </c>
       <c r="F83" s="17">
         <f t="shared" si="10"/>
-        <v>2.0290000000000001E+119</v>
+        <v>1.9999999999999999E+119</v>
       </c>
       <c r="G83" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>2029섬</v>
+        <v>2000섬</v>
       </c>
       <c r="H83" s="17">
         <f t="shared" si="6"/>
@@ -5185,11 +5385,11 @@
       </c>
       <c r="F84" s="17">
         <f t="shared" si="10"/>
-        <v>6.085E+119</v>
+        <v>6E+119</v>
       </c>
       <c r="G84" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>6085섬</v>
+        <v>6000섬</v>
       </c>
       <c r="H84" s="17">
         <f t="shared" si="6"/>
@@ -5218,7 +5418,7 @@
       </c>
       <c r="G85" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>2a</v>
+        <v>2찰</v>
       </c>
       <c r="H85" s="17">
         <f t="shared" si="6"/>
@@ -5226,7 +5426,7 @@
       </c>
       <c r="I85" s="16" t="str" cm="1">
         <f t="array" ref="I85">IF(AND(H84&gt;100,H85&lt;100),INDEX(M:M,MATCH(I84,M:M,0)+1,0),I84)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J85" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5247,7 +5447,7 @@
       </c>
       <c r="G86" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>6a</v>
+        <v>6찰</v>
       </c>
       <c r="H86" s="17">
         <f t="shared" si="6"/>
@@ -5255,7 +5455,7 @@
       </c>
       <c r="I86" s="16" t="str" cm="1">
         <f t="array" ref="I86">IF(AND(H85&gt;100,H86&lt;100),INDEX(M:M,MATCH(I85,M:M,0)+1,0),I85)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J86" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5272,11 +5472,11 @@
       </c>
       <c r="F87" s="17">
         <f t="shared" si="10"/>
-        <v>1.7000000000000001E+121</v>
+        <v>9.9999999999999992E+120</v>
       </c>
       <c r="G87" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>17a</v>
+        <v>10찰</v>
       </c>
       <c r="H87" s="17">
         <f t="shared" si="6"/>
@@ -5284,7 +5484,7 @@
       </c>
       <c r="I87" s="16" t="str" cm="1">
         <f t="array" ref="I87">IF(AND(H86&gt;100,H87&lt;100),INDEX(M:M,MATCH(I86,M:M,0)+1,0),I86)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J87" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5301,11 +5501,11 @@
       </c>
       <c r="F88" s="17">
         <f t="shared" si="10"/>
-        <v>5.0000000000000001E+121</v>
+        <v>3.9999999999999997E+121</v>
       </c>
       <c r="G88" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>50a</v>
+        <v>40찰</v>
       </c>
       <c r="H88" s="17">
         <f t="shared" si="6"/>
@@ -5313,7 +5513,7 @@
       </c>
       <c r="I88" s="16" t="str" cm="1">
         <f t="array" ref="I88">IF(AND(H87&gt;100,H88&lt;100),INDEX(M:M,MATCH(I87,M:M,0)+1,0),I87)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J88" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5330,11 +5530,11 @@
       </c>
       <c r="F89" s="17">
         <f t="shared" si="10"/>
-        <v>1.4800000000000001E+122</v>
+        <v>1.4E+122</v>
       </c>
       <c r="G89" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>148a</v>
+        <v>140찰</v>
       </c>
       <c r="H89" s="17">
         <f t="shared" si="6"/>
@@ -5342,7 +5542,7 @@
       </c>
       <c r="I89" s="16" t="str" cm="1">
         <f t="array" ref="I89">IF(AND(H88&gt;100,H89&lt;100),INDEX(M:M,MATCH(I88,M:M,0)+1,0),I88)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J89" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5359,11 +5559,11 @@
       </c>
       <c r="F90" s="17">
         <f t="shared" si="10"/>
-        <v>4.4399999999999996E+122</v>
+        <v>4.3999999999999998E+122</v>
       </c>
       <c r="G90" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>444a</v>
+        <v>440찰</v>
       </c>
       <c r="H90" s="17">
         <f t="shared" si="6"/>
@@ -5371,7 +5571,7 @@
       </c>
       <c r="I90" s="16" t="str" cm="1">
         <f t="array" ref="I90">IF(AND(H89&gt;100,H90&lt;100),INDEX(M:M,MATCH(I89,M:M,0)+1,0),I89)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J90" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5388,11 +5588,11 @@
       </c>
       <c r="F91" s="17">
         <f t="shared" si="10"/>
-        <v>1.331E+123</v>
+        <v>1.2999999999999999E+123</v>
       </c>
       <c r="G91" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>1331a</v>
+        <v>1300찰</v>
       </c>
       <c r="H91" s="17">
         <f t="shared" si="6"/>
@@ -5400,7 +5600,7 @@
       </c>
       <c r="I91" s="16" t="str" cm="1">
         <f t="array" ref="I91">IF(AND(H90&gt;100,H91&lt;100),INDEX(M:M,MATCH(I90,M:M,0)+1,0),I90)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J91" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5417,11 +5617,11 @@
       </c>
       <c r="F92" s="17">
         <f t="shared" si="10"/>
-        <v>3.992E+123</v>
+        <v>3.8999999999999999E+123</v>
       </c>
       <c r="G92" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>3992a</v>
+        <v>3900찰</v>
       </c>
       <c r="H92" s="17">
         <f t="shared" si="6"/>
@@ -5429,7 +5629,7 @@
       </c>
       <c r="I92" s="16" t="str" cm="1">
         <f t="array" ref="I92">IF(AND(H91&gt;100,H92&lt;100),INDEX(M:M,MATCH(I91,M:M,0)+1,0),I91)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J92" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5450,7 +5650,7 @@
       </c>
       <c r="G93" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>2b</v>
+        <v>2교</v>
       </c>
       <c r="H93" s="17">
         <f t="shared" si="6"/>
@@ -5458,7 +5658,7 @@
       </c>
       <c r="I93" s="16" t="str" cm="1">
         <f t="array" ref="I93">IF(AND(H92&gt;100,H93&lt;100),INDEX(M:M,MATCH(I92,M:M,0)+1,0),I92)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J93" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5479,7 +5679,7 @@
       </c>
       <c r="G94" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>4b</v>
+        <v>4교</v>
       </c>
       <c r="H94" s="17">
         <f t="shared" si="6"/>
@@ -5487,7 +5687,7 @@
       </c>
       <c r="I94" s="16" t="str" cm="1">
         <f t="array" ref="I94">IF(AND(H93&gt;100,H94&lt;100),INDEX(M:M,MATCH(I93,M:M,0)+1,0),I93)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J94" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5504,11 +5704,11 @@
       </c>
       <c r="F95" s="17">
         <f t="shared" si="10"/>
-        <v>1.1E+125</v>
+        <v>9.9999999999999992E+124</v>
       </c>
       <c r="G95" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>11b</v>
+        <v>10교</v>
       </c>
       <c r="H95" s="17">
         <f t="shared" si="6"/>
@@ -5516,7 +5716,7 @@
       </c>
       <c r="I95" s="16" t="str" cm="1">
         <f t="array" ref="I95">IF(AND(H94&gt;100,H95&lt;100),INDEX(M:M,MATCH(I94,M:M,0)+1,0),I94)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J95" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5533,11 +5733,11 @@
       </c>
       <c r="F96" s="17">
         <f t="shared" si="10"/>
-        <v>3.2999999999999997E+125</v>
+        <v>2.9999999999999998E+125</v>
       </c>
       <c r="G96" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>33b</v>
+        <v>30교</v>
       </c>
       <c r="H96" s="17">
         <f t="shared" si="6"/>
@@ -5545,7 +5745,7 @@
       </c>
       <c r="I96" s="16" t="str" cm="1">
         <f t="array" ref="I96">IF(AND(H95&gt;100,H96&lt;100),INDEX(M:M,MATCH(I95,M:M,0)+1,0),I95)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J96" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5562,11 +5762,11 @@
       </c>
       <c r="F97" s="17">
         <f t="shared" si="10"/>
-        <v>9.7999999999999988E+125</v>
+        <v>9.0000000000000001E+125</v>
       </c>
       <c r="G97" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>98b</v>
+        <v>90교</v>
       </c>
       <c r="H97" s="17">
         <f t="shared" si="6"/>
@@ -5574,7 +5774,7 @@
       </c>
       <c r="I97" s="16" t="str" cm="1">
         <f t="array" ref="I97">IF(AND(H96&gt;100,H97&lt;100),INDEX(M:M,MATCH(I96,M:M,0)+1,0),I96)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J97" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5591,11 +5791,11 @@
       </c>
       <c r="F98" s="17">
         <f t="shared" si="10"/>
-        <v>2.9200000000000001E+126</v>
+        <v>2.8999999999999999E+126</v>
       </c>
       <c r="G98" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>292b</v>
+        <v>290교</v>
       </c>
       <c r="H98" s="17">
         <f t="shared" si="6"/>
@@ -5603,7 +5803,7 @@
       </c>
       <c r="I98" s="16" t="str" cm="1">
         <f t="array" ref="I98">IF(AND(H97&gt;100,H98&lt;100),INDEX(M:M,MATCH(I97,M:M,0)+1,0),I97)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J98" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5620,11 +5820,11 @@
       </c>
       <c r="F99" s="17">
         <f t="shared" si="10"/>
-        <v>8.7399999999999994E+126</v>
+        <v>8.699999999999999E+126</v>
       </c>
       <c r="G99" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>874b</v>
+        <v>870교</v>
       </c>
       <c r="H99" s="17">
         <f t="shared" si="6"/>
@@ -5632,7 +5832,7 @@
       </c>
       <c r="I99" s="16" t="str" cm="1">
         <f t="array" ref="I99">IF(AND(H98&gt;100,H99&lt;100),INDEX(M:M,MATCH(I98,M:M,0)+1,0),I98)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J99" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5649,11 +5849,11 @@
       </c>
       <c r="F100" s="17">
         <f t="shared" si="10"/>
-        <v>2.6199999999999999E+127</v>
+        <v>2.5999999999999997E+127</v>
       </c>
       <c r="G100" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>2620b</v>
+        <v>2600교</v>
       </c>
       <c r="H100" s="17">
         <f t="shared" si="6"/>
@@ -5661,7 +5861,7 @@
       </c>
       <c r="I100" s="16" t="str" cm="1">
         <f t="array" ref="I100">IF(AND(H99&gt;100,H100&lt;100),INDEX(M:M,MATCH(I99,M:M,0)+1,0),I99)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J100" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5678,11 +5878,11 @@
       </c>
       <c r="F101" s="17">
         <f t="shared" si="10"/>
-        <v>7.8579999999999992E+127</v>
+        <v>7.7999999999999996E+127</v>
       </c>
       <c r="G101" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>7858b</v>
+        <v>7800교</v>
       </c>
       <c r="H101" s="17">
         <f t="shared" si="6"/>
@@ -5690,7 +5890,7 @@
       </c>
       <c r="I101" s="16" t="str" cm="1">
         <f t="array" ref="I101">IF(AND(H100&gt;100,H101&lt;100),INDEX(M:M,MATCH(I100,M:M,0)+1,0),I100)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J101" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5765,11 +5965,11 @@
       </c>
       <c r="F104" s="17">
         <f t="shared" si="10"/>
-        <v>2.2000000000000002E+129</v>
+        <v>2E+129</v>
       </c>
       <c r="G104" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>22c</v>
+        <v>20c</v>
       </c>
       <c r="H104" s="17">
         <f t="shared" si="6"/>
@@ -5794,11 +5994,11 @@
       </c>
       <c r="F105" s="17">
         <f t="shared" si="10"/>
-        <v>6.4000000000000005E+129</v>
+        <v>6.0000000000000006E+129</v>
       </c>
       <c r="G105" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>64c</v>
+        <v>60c</v>
       </c>
       <c r="H105" s="17">
         <f t="shared" si="6"/>
@@ -5809,7 +6009,7 @@
         <v>c</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J136" si="14">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J117" si="14">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K105" s="16">
@@ -5823,11 +6023,11 @@
       </c>
       <c r="F106" s="17">
         <f t="shared" si="10"/>
-        <v>1.9100000000000002E+130</v>
+        <v>1.9000000000000001E+130</v>
       </c>
       <c r="G106" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>191c</v>
+        <v>190c</v>
       </c>
       <c r="H106" s="17">
         <f t="shared" si="6"/>
@@ -5852,11 +6052,11 @@
       </c>
       <c r="F107" s="17">
         <f t="shared" si="10"/>
-        <v>5.73E+130</v>
+        <v>5.7000000000000008E+130</v>
       </c>
       <c r="G107" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>573c</v>
+        <v>570c</v>
       </c>
       <c r="H107" s="17">
         <f t="shared" si="6"/>
@@ -5881,11 +6081,11 @@
       </c>
       <c r="F108" s="17">
         <f t="shared" si="10"/>
-        <v>1.7190000000000002E+131</v>
+        <v>1.7000000000000001E+131</v>
       </c>
       <c r="G108" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>1719c</v>
+        <v>1700c</v>
       </c>
       <c r="H108" s="17">
         <f t="shared" si="6"/>
@@ -5910,11 +6110,11 @@
       </c>
       <c r="F109" s="17">
         <f t="shared" si="10"/>
-        <v>5.1560000000000002E+131</v>
+        <v>5.1000000000000004E+131</v>
       </c>
       <c r="G109" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>5156c</v>
+        <v>5100c</v>
       </c>
       <c r="H109" s="17">
         <f t="shared" si="6"/>
@@ -5997,11 +6197,11 @@
       </c>
       <c r="F112" s="17">
         <f t="shared" si="10"/>
-        <v>1.4000000000000001E+133</v>
+        <v>1E+133</v>
       </c>
       <c r="G112" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>14d</v>
+        <v>10d</v>
       </c>
       <c r="H112" s="17">
         <f t="shared" si="6"/>
@@ -6026,11 +6226,11 @@
       </c>
       <c r="F113" s="17">
         <f t="shared" si="10"/>
-        <v>4.2E+133</v>
+        <v>4.0000000000000001E+133</v>
       </c>
       <c r="G113" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>42d</v>
+        <v>40d</v>
       </c>
       <c r="H113" s="17">
         <f t="shared" si="6"/>
@@ -6055,11 +6255,11 @@
       </c>
       <c r="F114" s="17">
         <f t="shared" si="10"/>
-        <v>1.2599999999999999E+134</v>
+        <v>1.2E+134</v>
       </c>
       <c r="G114" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>126d</v>
+        <v>120d</v>
       </c>
       <c r="H114" s="17">
         <f t="shared" si="6"/>
@@ -6084,11 +6284,11 @@
       </c>
       <c r="F115" s="17">
         <f t="shared" si="10"/>
-        <v>3.7600000000000002E+134</v>
+        <v>3.7000000000000001E+134</v>
       </c>
       <c r="G115" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>376d</v>
+        <v>370d</v>
       </c>
       <c r="H115" s="17">
         <f t="shared" si="6"/>
@@ -6113,11 +6313,11 @@
       </c>
       <c r="F116" s="17">
         <f t="shared" si="10"/>
-        <v>1.1280000000000001E+135</v>
+        <v>1.1E+135</v>
       </c>
       <c r="G116" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>1128d</v>
+        <v>1100d</v>
       </c>
       <c r="H116" s="17">
         <f t="shared" si="6"/>
@@ -6142,11 +6342,11 @@
       </c>
       <c r="F117" s="17">
         <f t="shared" si="10"/>
-        <v>3.3829999999999997E+135</v>
+        <v>3.2999999999999999E+135</v>
       </c>
       <c r="G117" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>3383d</v>
+        <v>3300d</v>
       </c>
       <c r="H117" s="17">
         <f t="shared" si="6"/>

--- a/Assets/06.Table/TestSword.xlsx
+++ b/Assets/06.Table/TestSword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C766F328-8AEA-49B9-8BAC-1B1271C3D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39723C-4C71-42AE-BF82-8B2F382AF696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,10 @@
   </si>
   <si>
     <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2491,6 +2491,366 @@
         <v>1.4360000000000002</v>
       </c>
     </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="22">
+        <v>76</v>
+      </c>
+      <c r="B78" s="23">
+        <f>Balnace!F85</f>
+        <v>2E+120</v>
+      </c>
+      <c r="C78" s="24" t="str">
+        <f>VLOOKUP(B78,Balnace!F:G,2,FALSE)</f>
+        <v>2찰</v>
+      </c>
+      <c r="D78" s="25">
+        <v>43</v>
+      </c>
+      <c r="E78" s="24">
+        <f>VLOOKUP(B78,Balnace!F:K,6,FALSE)</f>
+        <v>1.4370000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="22">
+        <v>77</v>
+      </c>
+      <c r="B79" s="23">
+        <f>Balnace!F86</f>
+        <v>6.0000000000000005E+120</v>
+      </c>
+      <c r="C79" s="24" t="str">
+        <f>VLOOKUP(B79,Balnace!F:G,2,FALSE)</f>
+        <v>6찰</v>
+      </c>
+      <c r="D79" s="25">
+        <v>43</v>
+      </c>
+      <c r="E79" s="24">
+        <f>VLOOKUP(B79,Balnace!F:K,6,FALSE)</f>
+        <v>1.4380000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="22">
+        <v>78</v>
+      </c>
+      <c r="B80" s="23">
+        <f>Balnace!F87</f>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="C80" s="24" t="str">
+        <f>VLOOKUP(B80,Balnace!F:G,2,FALSE)</f>
+        <v>10찰</v>
+      </c>
+      <c r="D80" s="25">
+        <v>43</v>
+      </c>
+      <c r="E80" s="24">
+        <f>VLOOKUP(B80,Balnace!F:K,6,FALSE)</f>
+        <v>1.4390000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="22">
+        <v>79</v>
+      </c>
+      <c r="B81" s="23">
+        <f>Balnace!F88</f>
+        <v>3.9999999999999997E+121</v>
+      </c>
+      <c r="C81" s="24" t="str">
+        <f>VLOOKUP(B81,Balnace!F:G,2,FALSE)</f>
+        <v>40찰</v>
+      </c>
+      <c r="D81" s="25">
+        <v>43</v>
+      </c>
+      <c r="E81" s="24">
+        <f>VLOOKUP(B81,Balnace!F:K,6,FALSE)</f>
+        <v>1.4400000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="22">
+        <v>80</v>
+      </c>
+      <c r="B82" s="23">
+        <f>Balnace!F89</f>
+        <v>1.4E+122</v>
+      </c>
+      <c r="C82" s="24" t="str">
+        <f>VLOOKUP(B82,Balnace!F:G,2,FALSE)</f>
+        <v>140찰</v>
+      </c>
+      <c r="D82" s="25">
+        <v>43</v>
+      </c>
+      <c r="E82" s="24">
+        <f>VLOOKUP(B82,Balnace!F:K,6,FALSE)</f>
+        <v>1.506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="22">
+        <v>81</v>
+      </c>
+      <c r="B83" s="23">
+        <f>Balnace!F90</f>
+        <v>4.3999999999999998E+122</v>
+      </c>
+      <c r="C83" s="24" t="str">
+        <f>VLOOKUP(B83,Balnace!F:G,2,FALSE)</f>
+        <v>440찰</v>
+      </c>
+      <c r="D83" s="25">
+        <v>43</v>
+      </c>
+      <c r="E83" s="24">
+        <f>VLOOKUP(B83,Balnace!F:K,6,FALSE)</f>
+        <v>1.5070000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="22">
+        <v>82</v>
+      </c>
+      <c r="B84" s="23">
+        <f>Balnace!F91</f>
+        <v>1.2999999999999999E+123</v>
+      </c>
+      <c r="C84" s="24" t="str">
+        <f>VLOOKUP(B84,Balnace!F:G,2,FALSE)</f>
+        <v>1300찰</v>
+      </c>
+      <c r="D84" s="25">
+        <v>43</v>
+      </c>
+      <c r="E84" s="24">
+        <f>VLOOKUP(B84,Balnace!F:K,6,FALSE)</f>
+        <v>1.508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="22">
+        <v>83</v>
+      </c>
+      <c r="B85" s="23">
+        <f>Balnace!F92</f>
+        <v>3.8999999999999999E+123</v>
+      </c>
+      <c r="C85" s="24" t="str">
+        <f>VLOOKUP(B85,Balnace!F:G,2,FALSE)</f>
+        <v>3900찰</v>
+      </c>
+      <c r="D85" s="25">
+        <v>43</v>
+      </c>
+      <c r="E85" s="24">
+        <f>VLOOKUP(B85,Balnace!F:K,6,FALSE)</f>
+        <v>1.5090000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="22">
+        <v>84</v>
+      </c>
+      <c r="B86" s="23">
+        <f>Balnace!F93</f>
+        <v>1.9999999999999999E+124</v>
+      </c>
+      <c r="C86" s="24" t="str">
+        <f>VLOOKUP(B86,Balnace!F:G,2,FALSE)</f>
+        <v>2교</v>
+      </c>
+      <c r="D86" s="25">
+        <v>43</v>
+      </c>
+      <c r="E86" s="24">
+        <f>VLOOKUP(B86,Balnace!F:K,6,FALSE)</f>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="22">
+        <v>85</v>
+      </c>
+      <c r="B87" s="23">
+        <f>Balnace!F94</f>
+        <v>3.9999999999999998E+124</v>
+      </c>
+      <c r="C87" s="24" t="str">
+        <f>VLOOKUP(B87,Balnace!F:G,2,FALSE)</f>
+        <v>4교</v>
+      </c>
+      <c r="D87" s="25">
+        <v>43</v>
+      </c>
+      <c r="E87" s="24">
+        <f>VLOOKUP(B87,Balnace!F:K,6,FALSE)</f>
+        <v>1.5160000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="22">
+        <v>86</v>
+      </c>
+      <c r="B88" s="23">
+        <f>Balnace!F95</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="C88" s="24" t="str">
+        <f>VLOOKUP(B88,Balnace!F:G,2,FALSE)</f>
+        <v>10교</v>
+      </c>
+      <c r="D88" s="25">
+        <v>43</v>
+      </c>
+      <c r="E88" s="24">
+        <f>VLOOKUP(B88,Balnace!F:K,6,FALSE)</f>
+        <v>1.5170000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="22">
+        <v>87</v>
+      </c>
+      <c r="B89" s="23">
+        <f>Balnace!F96</f>
+        <v>2.9999999999999998E+125</v>
+      </c>
+      <c r="C89" s="24" t="str">
+        <f>VLOOKUP(B89,Balnace!F:G,2,FALSE)</f>
+        <v>30교</v>
+      </c>
+      <c r="D89" s="25">
+        <v>43</v>
+      </c>
+      <c r="E89" s="24">
+        <f>VLOOKUP(B89,Balnace!F:K,6,FALSE)</f>
+        <v>1.5180000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="22">
+        <v>88</v>
+      </c>
+      <c r="B90" s="23">
+        <f>Balnace!F97</f>
+        <v>9.0000000000000001E+125</v>
+      </c>
+      <c r="C90" s="24" t="str">
+        <f>VLOOKUP(B90,Balnace!F:G,2,FALSE)</f>
+        <v>90교</v>
+      </c>
+      <c r="D90" s="25">
+        <v>43</v>
+      </c>
+      <c r="E90" s="24">
+        <f>VLOOKUP(B90,Balnace!F:K,6,FALSE)</f>
+        <v>1.5190000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="22">
+        <v>89</v>
+      </c>
+      <c r="B91" s="23">
+        <f>Balnace!F98</f>
+        <v>2.8999999999999999E+126</v>
+      </c>
+      <c r="C91" s="24" t="str">
+        <f>VLOOKUP(B91,Balnace!F:G,2,FALSE)</f>
+        <v>290교</v>
+      </c>
+      <c r="D91" s="25">
+        <v>43</v>
+      </c>
+      <c r="E91" s="24">
+        <f>VLOOKUP(B91,Balnace!F:K,6,FALSE)</f>
+        <v>1.5200000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="22">
+        <v>90</v>
+      </c>
+      <c r="B92" s="23">
+        <f>Balnace!F99</f>
+        <v>8.699999999999999E+126</v>
+      </c>
+      <c r="C92" s="24" t="str">
+        <f>VLOOKUP(B92,Balnace!F:G,2,FALSE)</f>
+        <v>870교</v>
+      </c>
+      <c r="D92" s="25">
+        <v>43</v>
+      </c>
+      <c r="E92" s="24">
+        <f>VLOOKUP(B92,Balnace!F:K,6,FALSE)</f>
+        <v>1.536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="22">
+        <v>91</v>
+      </c>
+      <c r="B93" s="23">
+        <f>Balnace!F100</f>
+        <v>2.5999999999999997E+127</v>
+      </c>
+      <c r="C93" s="24" t="str">
+        <f>VLOOKUP(B93,Balnace!F:G,2,FALSE)</f>
+        <v>2600교</v>
+      </c>
+      <c r="D93" s="25">
+        <v>43</v>
+      </c>
+      <c r="E93" s="24">
+        <f>VLOOKUP(B93,Balnace!F:K,6,FALSE)</f>
+        <v>1.5370000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="22">
+        <v>92</v>
+      </c>
+      <c r="B94" s="23">
+        <f>Balnace!F101</f>
+        <v>7.7999999999999996E+127</v>
+      </c>
+      <c r="C94" s="24" t="str">
+        <f>VLOOKUP(B94,Balnace!F:G,2,FALSE)</f>
+        <v>7800교</v>
+      </c>
+      <c r="D94" s="25">
+        <v>43</v>
+      </c>
+      <c r="E94" s="24">
+        <f>VLOOKUP(B94,Balnace!F:K,6,FALSE)</f>
+        <v>1.538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="22">
+        <v>93</v>
+      </c>
+      <c r="B95" s="23">
+        <f>Balnace!F102</f>
+        <v>3.0000000000000002E+128</v>
+      </c>
+      <c r="C95" s="24" t="str">
+        <f>VLOOKUP(B95,Balnace!F:G,2,FALSE)</f>
+        <v>3위</v>
+      </c>
+      <c r="D95" s="25">
+        <v>43</v>
+      </c>
+      <c r="E95" s="24">
+        <f>VLOOKUP(B95,Balnace!F:K,6,FALSE)</f>
+        <v>1.5390000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2502,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C958EC-A3B0-4647-8AFE-077786E933F9}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2879,7 +3239,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="19">
         <v>1E-3</v>
@@ -2929,7 +3289,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="19">
         <v>5.0000000000000001E-3</v>
@@ -2979,7 +3339,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="19">
         <v>0.01</v>
@@ -3029,7 +3389,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="19">
         <v>0.05</v>
@@ -3970,7 +4330,7 @@
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N37" s="16">
         <v>120</v>
@@ -4023,7 +4383,7 @@
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N38" s="16">
         <v>124</v>
@@ -4075,7 +4435,7 @@
         <v>1.206</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N39" s="16">
         <v>128</v>
@@ -4118,7 +4478,7 @@
         <v>1.2070000000000001</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N40" s="16">
         <v>132</v>
@@ -5911,7 +6271,7 @@
       </c>
       <c r="G102" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>3c</v>
+        <v>3위</v>
       </c>
       <c r="H102" s="17">
         <f t="shared" si="6"/>
@@ -5919,7 +6279,7 @@
       </c>
       <c r="I102" s="16" t="str" cm="1">
         <f t="array" ref="I102">IF(AND(H101&gt;100,H102&lt;100),INDEX(M:M,MATCH(I101,M:M,0)+1,0),I101)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J102" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5940,7 +6300,7 @@
       </c>
       <c r="G103" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>8c</v>
+        <v>8위</v>
       </c>
       <c r="H103" s="17">
         <f t="shared" si="6"/>
@@ -5948,7 +6308,7 @@
       </c>
       <c r="I103" s="16" t="str" cm="1">
         <f t="array" ref="I103">IF(AND(H102&gt;100,H103&lt;100),INDEX(M:M,MATCH(I102,M:M,0)+1,0),I102)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J103" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5969,7 +6329,7 @@
       </c>
       <c r="G104" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>20c</v>
+        <v>20위</v>
       </c>
       <c r="H104" s="17">
         <f t="shared" si="6"/>
@@ -5977,7 +6337,7 @@
       </c>
       <c r="I104" s="16" t="str" cm="1">
         <f t="array" ref="I104">IF(AND(H103&gt;100,H104&lt;100),INDEX(M:M,MATCH(I103,M:M,0)+1,0),I103)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J104" s="16" t="str">
         <f t="shared" si="9"/>
@@ -5998,7 +6358,7 @@
       </c>
       <c r="G105" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>60c</v>
+        <v>60위</v>
       </c>
       <c r="H105" s="17">
         <f t="shared" si="6"/>
@@ -6006,7 +6366,7 @@
       </c>
       <c r="I105" s="16" t="str" cm="1">
         <f t="array" ref="I105">IF(AND(H104&gt;100,H105&lt;100),INDEX(M:M,MATCH(I104,M:M,0)+1,0),I104)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J105" s="16" t="str">
         <f t="shared" ref="J105:J117" si="14">VLOOKUP(I105,M:P,4,FALSE)</f>
@@ -6027,7 +6387,7 @@
       </c>
       <c r="G106" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>190c</v>
+        <v>190위</v>
       </c>
       <c r="H106" s="17">
         <f t="shared" si="6"/>
@@ -6035,7 +6395,7 @@
       </c>
       <c r="I106" s="16" t="str" cm="1">
         <f t="array" ref="I106">IF(AND(H105&gt;100,H106&lt;100),INDEX(M:M,MATCH(I105,M:M,0)+1,0),I105)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J106" s="16" t="str">
         <f t="shared" si="14"/>
@@ -6056,7 +6416,7 @@
       </c>
       <c r="G107" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>570c</v>
+        <v>570위</v>
       </c>
       <c r="H107" s="17">
         <f t="shared" si="6"/>
@@ -6064,7 +6424,7 @@
       </c>
       <c r="I107" s="16" t="str" cm="1">
         <f t="array" ref="I107">IF(AND(H106&gt;100,H107&lt;100),INDEX(M:M,MATCH(I106,M:M,0)+1,0),I106)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J107" s="16" t="str">
         <f t="shared" si="14"/>
@@ -6085,7 +6445,7 @@
       </c>
       <c r="G108" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>1700c</v>
+        <v>1700위</v>
       </c>
       <c r="H108" s="17">
         <f t="shared" si="6"/>
@@ -6093,7 +6453,7 @@
       </c>
       <c r="I108" s="16" t="str" cm="1">
         <f t="array" ref="I108">IF(AND(H107&gt;100,H108&lt;100),INDEX(M:M,MATCH(I107,M:M,0)+1,0),I107)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J108" s="16" t="str">
         <f t="shared" si="14"/>
@@ -6114,7 +6474,7 @@
       </c>
       <c r="G109" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>5100c</v>
+        <v>5100위</v>
       </c>
       <c r="H109" s="17">
         <f t="shared" si="6"/>
@@ -6122,7 +6482,7 @@
       </c>
       <c r="I109" s="16" t="str" cm="1">
         <f t="array" ref="I109">IF(AND(H108&gt;100,H109&lt;100),INDEX(M:M,MATCH(I108,M:M,0)+1,0),I108)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J109" s="16" t="str">
         <f t="shared" si="14"/>

--- a/Assets/06.Table/TestSword.xlsx
+++ b/Assets/06.Table/TestSword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C39723C-4C71-42AE-BF82-8B2F382AF696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37368672-64A6-43D4-812F-8CCC4C3E8333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSword" sheetId="1" r:id="rId1"/>
@@ -938,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2589,266 +2589,6 @@
       <c r="E82" s="24">
         <f>VLOOKUP(B82,Balnace!F:K,6,FALSE)</f>
         <v>1.506</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="22">
-        <v>81</v>
-      </c>
-      <c r="B83" s="23">
-        <f>Balnace!F90</f>
-        <v>4.3999999999999998E+122</v>
-      </c>
-      <c r="C83" s="24" t="str">
-        <f>VLOOKUP(B83,Balnace!F:G,2,FALSE)</f>
-        <v>440찰</v>
-      </c>
-      <c r="D83" s="25">
-        <v>43</v>
-      </c>
-      <c r="E83" s="24">
-        <f>VLOOKUP(B83,Balnace!F:K,6,FALSE)</f>
-        <v>1.5070000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="22">
-        <v>82</v>
-      </c>
-      <c r="B84" s="23">
-        <f>Balnace!F91</f>
-        <v>1.2999999999999999E+123</v>
-      </c>
-      <c r="C84" s="24" t="str">
-        <f>VLOOKUP(B84,Balnace!F:G,2,FALSE)</f>
-        <v>1300찰</v>
-      </c>
-      <c r="D84" s="25">
-        <v>43</v>
-      </c>
-      <c r="E84" s="24">
-        <f>VLOOKUP(B84,Balnace!F:K,6,FALSE)</f>
-        <v>1.508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="22">
-        <v>83</v>
-      </c>
-      <c r="B85" s="23">
-        <f>Balnace!F92</f>
-        <v>3.8999999999999999E+123</v>
-      </c>
-      <c r="C85" s="24" t="str">
-        <f>VLOOKUP(B85,Balnace!F:G,2,FALSE)</f>
-        <v>3900찰</v>
-      </c>
-      <c r="D85" s="25">
-        <v>43</v>
-      </c>
-      <c r="E85" s="24">
-        <f>VLOOKUP(B85,Balnace!F:K,6,FALSE)</f>
-        <v>1.5090000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="22">
-        <v>84</v>
-      </c>
-      <c r="B86" s="23">
-        <f>Balnace!F93</f>
-        <v>1.9999999999999999E+124</v>
-      </c>
-      <c r="C86" s="24" t="str">
-        <f>VLOOKUP(B86,Balnace!F:G,2,FALSE)</f>
-        <v>2교</v>
-      </c>
-      <c r="D86" s="25">
-        <v>43</v>
-      </c>
-      <c r="E86" s="24">
-        <f>VLOOKUP(B86,Balnace!F:K,6,FALSE)</f>
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="22">
-        <v>85</v>
-      </c>
-      <c r="B87" s="23">
-        <f>Balnace!F94</f>
-        <v>3.9999999999999998E+124</v>
-      </c>
-      <c r="C87" s="24" t="str">
-        <f>VLOOKUP(B87,Balnace!F:G,2,FALSE)</f>
-        <v>4교</v>
-      </c>
-      <c r="D87" s="25">
-        <v>43</v>
-      </c>
-      <c r="E87" s="24">
-        <f>VLOOKUP(B87,Balnace!F:K,6,FALSE)</f>
-        <v>1.5160000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="22">
-        <v>86</v>
-      </c>
-      <c r="B88" s="23">
-        <f>Balnace!F95</f>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="C88" s="24" t="str">
-        <f>VLOOKUP(B88,Balnace!F:G,2,FALSE)</f>
-        <v>10교</v>
-      </c>
-      <c r="D88" s="25">
-        <v>43</v>
-      </c>
-      <c r="E88" s="24">
-        <f>VLOOKUP(B88,Balnace!F:K,6,FALSE)</f>
-        <v>1.5170000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="22">
-        <v>87</v>
-      </c>
-      <c r="B89" s="23">
-        <f>Balnace!F96</f>
-        <v>2.9999999999999998E+125</v>
-      </c>
-      <c r="C89" s="24" t="str">
-        <f>VLOOKUP(B89,Balnace!F:G,2,FALSE)</f>
-        <v>30교</v>
-      </c>
-      <c r="D89" s="25">
-        <v>43</v>
-      </c>
-      <c r="E89" s="24">
-        <f>VLOOKUP(B89,Balnace!F:K,6,FALSE)</f>
-        <v>1.5180000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="22">
-        <v>88</v>
-      </c>
-      <c r="B90" s="23">
-        <f>Balnace!F97</f>
-        <v>9.0000000000000001E+125</v>
-      </c>
-      <c r="C90" s="24" t="str">
-        <f>VLOOKUP(B90,Balnace!F:G,2,FALSE)</f>
-        <v>90교</v>
-      </c>
-      <c r="D90" s="25">
-        <v>43</v>
-      </c>
-      <c r="E90" s="24">
-        <f>VLOOKUP(B90,Balnace!F:K,6,FALSE)</f>
-        <v>1.5190000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="22">
-        <v>89</v>
-      </c>
-      <c r="B91" s="23">
-        <f>Balnace!F98</f>
-        <v>2.8999999999999999E+126</v>
-      </c>
-      <c r="C91" s="24" t="str">
-        <f>VLOOKUP(B91,Balnace!F:G,2,FALSE)</f>
-        <v>290교</v>
-      </c>
-      <c r="D91" s="25">
-        <v>43</v>
-      </c>
-      <c r="E91" s="24">
-        <f>VLOOKUP(B91,Balnace!F:K,6,FALSE)</f>
-        <v>1.5200000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="22">
-        <v>90</v>
-      </c>
-      <c r="B92" s="23">
-        <f>Balnace!F99</f>
-        <v>8.699999999999999E+126</v>
-      </c>
-      <c r="C92" s="24" t="str">
-        <f>VLOOKUP(B92,Balnace!F:G,2,FALSE)</f>
-        <v>870교</v>
-      </c>
-      <c r="D92" s="25">
-        <v>43</v>
-      </c>
-      <c r="E92" s="24">
-        <f>VLOOKUP(B92,Balnace!F:K,6,FALSE)</f>
-        <v>1.536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="22">
-        <v>91</v>
-      </c>
-      <c r="B93" s="23">
-        <f>Balnace!F100</f>
-        <v>2.5999999999999997E+127</v>
-      </c>
-      <c r="C93" s="24" t="str">
-        <f>VLOOKUP(B93,Balnace!F:G,2,FALSE)</f>
-        <v>2600교</v>
-      </c>
-      <c r="D93" s="25">
-        <v>43</v>
-      </c>
-      <c r="E93" s="24">
-        <f>VLOOKUP(B93,Balnace!F:K,6,FALSE)</f>
-        <v>1.5370000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="22">
-        <v>92</v>
-      </c>
-      <c r="B94" s="23">
-        <f>Balnace!F101</f>
-        <v>7.7999999999999996E+127</v>
-      </c>
-      <c r="C94" s="24" t="str">
-        <f>VLOOKUP(B94,Balnace!F:G,2,FALSE)</f>
-        <v>7800교</v>
-      </c>
-      <c r="D94" s="25">
-        <v>43</v>
-      </c>
-      <c r="E94" s="24">
-        <f>VLOOKUP(B94,Balnace!F:K,6,FALSE)</f>
-        <v>1.538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="22">
-        <v>93</v>
-      </c>
-      <c r="B95" s="23">
-        <f>Balnace!F102</f>
-        <v>3.0000000000000002E+128</v>
-      </c>
-      <c r="C95" s="24" t="str">
-        <f>VLOOKUP(B95,Balnace!F:G,2,FALSE)</f>
-        <v>3위</v>
-      </c>
-      <c r="D95" s="25">
-        <v>43</v>
-      </c>
-      <c r="E95" s="24">
-        <f>VLOOKUP(B95,Balnace!F:K,6,FALSE)</f>
-        <v>1.5390000000000001</v>
       </c>
     </row>
   </sheetData>
